--- a/data_excel/21.xlsx
+++ b/data_excel/21.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前100題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>投籃比賽</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,10 +218,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -515,7 +528,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C14" activeCellId="2" sqref="C4 C9 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -587,8 +600,8 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -654,7 +667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -665,15 +678,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -706,7 +719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -717,15 +730,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
